--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H2">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N2">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O2">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P2">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q2">
-        <v>13.19539221221201</v>
+        <v>19.55435156722911</v>
       </c>
       <c r="R2">
-        <v>13.19539221221201</v>
+        <v>175.989164105062</v>
       </c>
       <c r="S2">
-        <v>0.03804255189742904</v>
+        <v>0.05003521010026179</v>
       </c>
       <c r="T2">
-        <v>0.03804255189742904</v>
+        <v>0.05003521010026177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H3">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N3">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P3">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q3">
-        <v>86.04001320090602</v>
+        <v>105.5224840127251</v>
       </c>
       <c r="R3">
-        <v>86.04001320090602</v>
+        <v>949.702356114526</v>
       </c>
       <c r="S3">
-        <v>0.2480548978621263</v>
+        <v>0.2700084244535437</v>
       </c>
       <c r="T3">
-        <v>0.2480548978621263</v>
+        <v>0.2700084244535437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H4">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N4">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P4">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q4">
-        <v>26.29832014983845</v>
+        <v>32.61273024195823</v>
       </c>
       <c r="R4">
-        <v>26.29832014983845</v>
+        <v>293.514572177624</v>
       </c>
       <c r="S4">
-        <v>0.075818527636453</v>
+        <v>0.0834486791336118</v>
       </c>
       <c r="T4">
-        <v>0.075818527636453</v>
+        <v>0.08344867913361179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H5">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N5">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O5">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P5">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q5">
-        <v>12.77145859878545</v>
+        <v>16.05448627286533</v>
       </c>
       <c r="R5">
-        <v>12.77145859878545</v>
+        <v>144.490376455788</v>
       </c>
       <c r="S5">
-        <v>0.03682034370304745</v>
+        <v>0.04107983795590585</v>
       </c>
       <c r="T5">
-        <v>0.03682034370304745</v>
+        <v>0.04107983795590585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H6">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N6">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P6">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q6">
-        <v>83.27577147857416</v>
+        <v>86.63592168916931</v>
       </c>
       <c r="R6">
-        <v>83.27577147857416</v>
+        <v>779.7232952025239</v>
       </c>
       <c r="S6">
-        <v>0.2400855395067508</v>
+        <v>0.2216819376006376</v>
       </c>
       <c r="T6">
-        <v>0.2400855395067508</v>
+        <v>0.2216819376006376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H7">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N7">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P7">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q7">
-        <v>25.45342355950809</v>
+        <v>26.77565800073067</v>
       </c>
       <c r="R7">
-        <v>25.45342355950809</v>
+        <v>240.980922006576</v>
       </c>
       <c r="S7">
-        <v>0.07338267564594857</v>
+        <v>0.06851291739504894</v>
       </c>
       <c r="T7">
-        <v>0.07338267564594857</v>
+        <v>0.06851291739504896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H8">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N8">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O8">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P8">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q8">
-        <v>10.49297145811893</v>
+        <v>12.85392316897333</v>
       </c>
       <c r="R8">
-        <v>10.49297145811893</v>
+        <v>115.68530852076</v>
       </c>
       <c r="S8">
-        <v>0.03025142449985688</v>
+        <v>0.03289031314390646</v>
       </c>
       <c r="T8">
-        <v>0.03025142449985688</v>
+        <v>0.03289031314390645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H9">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N9">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O9">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P9">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q9">
-        <v>68.41898961803875</v>
+        <v>69.36450423505333</v>
       </c>
       <c r="R9">
-        <v>68.41898961803875</v>
+        <v>624.28053811548</v>
       </c>
       <c r="S9">
-        <v>0.1972531715203615</v>
+        <v>0.1774882450573221</v>
       </c>
       <c r="T9">
-        <v>0.1972531715203615</v>
+        <v>0.1774882450573221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H10">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N10">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O10">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P10">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q10">
-        <v>20.91241535612304</v>
+        <v>21.43776168794667</v>
       </c>
       <c r="R10">
-        <v>20.91241535612304</v>
+        <v>192.93985519152</v>
       </c>
       <c r="S10">
-        <v>0.0602908677280263</v>
+        <v>0.05485443515976172</v>
       </c>
       <c r="T10">
-        <v>0.0602908677280263</v>
+        <v>0.05485443515976172</v>
       </c>
     </row>
   </sheetData>
